--- a/nucl_acid_hydrolysis/time_opti_80C/nucleotide_acid-hydrolysis_time-opti.xlsx
+++ b/nucl_acid_hydrolysis/time_opti_80C/nucleotide_acid-hydrolysis_time-opti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/nucl_acid_hydrolysis/time_opti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/nucl_acid_hydrolysis/time_opti_80C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B81E8E-654D-454E-9556-A0DF4CE575A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A70BC64-4533-9649-B949-7801073EDB0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4380" windowWidth="28800" windowHeight="13620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4380" windowWidth="28800" windowHeight="13620" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adenine pos" sheetId="1" r:id="rId1"/>
@@ -2295,14 +2295,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2331,7 +2333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2389,7 +2391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2418,7 +2420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2447,7 +2449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2476,7 +2478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2505,7 +2507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2534,7 +2536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2563,7 +2565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2592,7 +2594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2650,7 +2652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2679,7 +2681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2708,7 +2710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2746,14 +2748,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2782,7 +2786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -2811,7 +2815,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -2927,7 +2931,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -2985,7 +2989,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -3014,7 +3018,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3072,7 +3076,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -3130,7 +3134,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -3159,7 +3163,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -3197,14 +3201,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3233,7 +3239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -3262,7 +3268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -3291,7 +3297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -3349,7 +3355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -3378,7 +3384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -3407,7 +3413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -3436,7 +3442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -3494,7 +3500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -3610,7 +3616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -3650,12 +3656,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3684,7 +3690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -3713,7 +3719,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -3742,7 +3748,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -3771,7 +3777,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -3800,7 +3806,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -3829,7 +3835,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -3858,7 +3864,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -3887,7 +3893,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -3916,7 +3922,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -3945,7 +3951,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -3974,7 +3980,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -4003,7 +4009,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -4032,7 +4038,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -4061,7 +4067,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -4099,14 +4105,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4135,7 +4143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>148</v>
       </c>
@@ -4164,7 +4172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -4193,7 +4201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4222,7 +4230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -4251,7 +4259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -4280,7 +4288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -4309,7 +4317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>148</v>
       </c>
@@ -4338,7 +4346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>148</v>
       </c>
@@ -4367,7 +4375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -4396,7 +4404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>148</v>
       </c>
@@ -4425,7 +4433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -4454,7 +4462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -4483,7 +4491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -4512,7 +4520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -4552,12 +4560,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4586,7 +4594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -4615,7 +4623,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -4644,7 +4652,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>150</v>
       </c>
@@ -4673,7 +4681,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -4702,7 +4710,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4731,7 +4739,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -4760,7 +4768,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -4789,7 +4797,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>150</v>
       </c>
@@ -4818,7 +4826,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -4847,7 +4855,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -4876,7 +4884,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -4905,7 +4913,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>150</v>
       </c>
@@ -4934,7 +4942,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -4963,7 +4971,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>150</v>
       </c>
@@ -5003,12 +5011,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5037,7 +5045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -5066,7 +5074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -5095,7 +5103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -5124,7 +5132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -5153,7 +5161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -5182,7 +5190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>166</v>
       </c>
@@ -5211,7 +5219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -5240,7 +5248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>166</v>
       </c>
@@ -5269,7 +5277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>166</v>
       </c>
@@ -5298,7 +5306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -5327,7 +5335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -5356,7 +5364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -5385,7 +5393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -5414,7 +5422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -5454,12 +5462,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5488,7 +5496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -5517,7 +5525,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -5546,7 +5554,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -5575,7 +5583,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -5604,7 +5612,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -5633,7 +5641,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>168</v>
       </c>
@@ -5662,7 +5670,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -5691,7 +5699,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -5720,7 +5728,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -5749,7 +5757,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>168</v>
       </c>
@@ -5778,7 +5786,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -5807,7 +5815,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -5836,7 +5844,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -5865,7 +5873,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -5905,12 +5913,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5939,7 +5947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -5968,7 +5976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>184</v>
       </c>
@@ -5997,7 +6005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -6026,7 +6034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -6055,7 +6063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -6084,7 +6092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -6113,7 +6121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -6142,7 +6150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -6171,7 +6179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -6200,7 +6208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>184</v>
       </c>
@@ -6229,7 +6237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>184</v>
       </c>
@@ -6258,7 +6266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>184</v>
       </c>
@@ -6287,7 +6295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -6316,7 +6324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>184</v>
       </c>
@@ -6356,12 +6364,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6390,7 +6398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>186</v>
       </c>
@@ -6419,7 +6427,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -6448,7 +6456,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -6477,7 +6485,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -6506,7 +6514,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -6535,7 +6543,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -6564,7 +6572,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>186</v>
       </c>
@@ -6593,7 +6601,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -6622,7 +6630,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -6651,7 +6659,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -6680,7 +6688,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>186</v>
       </c>
@@ -6709,7 +6717,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>186</v>
       </c>
@@ -6738,7 +6746,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>186</v>
       </c>
@@ -6767,7 +6775,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>186</v>
       </c>
@@ -6807,12 +6815,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6841,7 +6849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -6870,7 +6878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>202</v>
       </c>
@@ -6899,7 +6907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -6928,7 +6936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -6957,7 +6965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -6986,7 +6994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -7015,7 +7023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>202</v>
       </c>
@@ -7044,7 +7052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -7073,7 +7081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>202</v>
       </c>
@@ -7102,7 +7110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>202</v>
       </c>
@@ -7131,7 +7139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -7160,7 +7168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -7189,7 +7197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -7218,7 +7226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>202</v>
       </c>
@@ -7256,14 +7264,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7292,7 +7302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -7321,7 +7331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -7350,7 +7360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -7379,7 +7389,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -7408,7 +7418,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -7437,7 +7447,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -7466,7 +7476,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -7495,7 +7505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -7524,7 +7534,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -7553,7 +7563,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -7582,7 +7592,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -7611,7 +7621,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -7640,7 +7650,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -7669,7 +7679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -7709,12 +7719,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7743,7 +7753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>203</v>
       </c>
@@ -7772,7 +7782,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -7801,7 +7811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>203</v>
       </c>
@@ -7830,7 +7840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -7859,7 +7869,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -7888,7 +7898,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -7917,7 +7927,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -7946,7 +7956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>203</v>
       </c>
@@ -7975,7 +7985,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -8004,7 +8014,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -8033,7 +8043,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -8062,7 +8072,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -8091,7 +8101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -8120,7 +8130,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -8160,12 +8170,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8194,7 +8204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -8223,7 +8233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -8252,7 +8262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -8281,7 +8291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -8310,7 +8320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -8339,7 +8349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -8368,7 +8378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>204</v>
       </c>
@@ -8397,7 +8407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -8426,7 +8436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>204</v>
       </c>
@@ -8455,7 +8465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>204</v>
       </c>
@@ -8484,7 +8494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>204</v>
       </c>
@@ -8513,7 +8523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>204</v>
       </c>
@@ -8542,7 +8552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -8571,7 +8581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>204</v>
       </c>
@@ -8611,12 +8621,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8645,7 +8655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -8674,7 +8684,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>206</v>
       </c>
@@ -8703,7 +8713,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>206</v>
       </c>
@@ -8732,7 +8742,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -8761,7 +8771,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>206</v>
       </c>
@@ -8790,7 +8800,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -8819,7 +8829,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -8848,7 +8858,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -8877,7 +8887,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -8906,7 +8916,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -8935,7 +8945,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -8964,7 +8974,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -8993,7 +9003,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -9022,7 +9032,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -9062,12 +9072,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9096,7 +9106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -9125,7 +9135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>222</v>
       </c>
@@ -9154,7 +9164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>222</v>
       </c>
@@ -9183,7 +9193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>222</v>
       </c>
@@ -9212,7 +9222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -9241,7 +9251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -9270,7 +9280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -9299,7 +9309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -9328,7 +9338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -9357,7 +9367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>222</v>
       </c>
@@ -9386,7 +9396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -9415,7 +9425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -9444,7 +9454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>222</v>
       </c>
@@ -9473,7 +9483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>222</v>
       </c>
@@ -9513,12 +9523,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9547,7 +9557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -9576,7 +9586,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>224</v>
       </c>
@@ -9605,7 +9615,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>224</v>
       </c>
@@ -9634,7 +9644,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>224</v>
       </c>
@@ -9663,7 +9673,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>224</v>
       </c>
@@ -9692,7 +9702,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>224</v>
       </c>
@@ -9721,7 +9731,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>224</v>
       </c>
@@ -9750,7 +9760,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -9779,7 +9789,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -9808,7 +9818,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>224</v>
       </c>
@@ -9837,7 +9847,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>224</v>
       </c>
@@ -9866,7 +9876,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>224</v>
       </c>
@@ -9895,7 +9905,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>224</v>
       </c>
@@ -9924,7 +9934,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -9964,12 +9974,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9998,7 +10008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>240</v>
       </c>
@@ -10027,7 +10037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>240</v>
       </c>
@@ -10056,7 +10066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>240</v>
       </c>
@@ -10085,7 +10095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -10114,7 +10124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>240</v>
       </c>
@@ -10143,7 +10153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>240</v>
       </c>
@@ -10172,7 +10182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>240</v>
       </c>
@@ -10201,7 +10211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>240</v>
       </c>
@@ -10230,7 +10240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -10259,7 +10269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>240</v>
       </c>
@@ -10288,7 +10298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>240</v>
       </c>
@@ -10317,7 +10327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>240</v>
       </c>
@@ -10346,7 +10356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>240</v>
       </c>
@@ -10375,7 +10385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>240</v>
       </c>
@@ -10415,12 +10425,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10449,7 +10459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -10478,7 +10488,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -10507,7 +10517,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>242</v>
       </c>
@@ -10536,7 +10546,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -10565,7 +10575,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>242</v>
       </c>
@@ -10594,7 +10604,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>242</v>
       </c>
@@ -10623,7 +10633,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>242</v>
       </c>
@@ -10652,7 +10662,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>242</v>
       </c>
@@ -10681,7 +10691,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -10710,7 +10720,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>242</v>
       </c>
@@ -10739,7 +10749,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>242</v>
       </c>
@@ -10768,7 +10778,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>242</v>
       </c>
@@ -10797,7 +10807,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -10826,7 +10836,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>242</v>
       </c>
@@ -10866,12 +10876,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10900,7 +10910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>258</v>
       </c>
@@ -10929,7 +10939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>258</v>
       </c>
@@ -10958,7 +10968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>258</v>
       </c>
@@ -10987,7 +10997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>258</v>
       </c>
@@ -11016,7 +11026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>258</v>
       </c>
@@ -11045,7 +11055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>258</v>
       </c>
@@ -11074,7 +11084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -11103,7 +11113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>258</v>
       </c>
@@ -11132,7 +11142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>258</v>
       </c>
@@ -11161,7 +11171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>258</v>
       </c>
@@ -11190,7 +11200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>258</v>
       </c>
@@ -11219,7 +11229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -11248,7 +11258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>258</v>
       </c>
@@ -11277,7 +11287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -11317,12 +11327,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11351,7 +11361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -11380,7 +11390,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>260</v>
       </c>
@@ -11409,7 +11419,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>260</v>
       </c>
@@ -11438,7 +11448,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>260</v>
       </c>
@@ -11467,7 +11477,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>260</v>
       </c>
@@ -11496,7 +11506,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>260</v>
       </c>
@@ -11525,7 +11535,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>260</v>
       </c>
@@ -11554,7 +11564,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>260</v>
       </c>
@@ -11583,7 +11593,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -11612,7 +11622,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -11641,7 +11651,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -11670,7 +11680,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>260</v>
       </c>
@@ -11699,7 +11709,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>260</v>
       </c>
@@ -11728,7 +11738,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>260</v>
       </c>
@@ -11768,12 +11778,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11802,7 +11812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -11831,7 +11841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>276</v>
       </c>
@@ -11860,7 +11870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>276</v>
       </c>
@@ -11889,7 +11899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>276</v>
       </c>
@@ -11918,7 +11928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>276</v>
       </c>
@@ -11947,7 +11957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>276</v>
       </c>
@@ -11976,7 +11986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>276</v>
       </c>
@@ -12005,7 +12015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>276</v>
       </c>
@@ -12034,7 +12044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>276</v>
       </c>
@@ -12063,7 +12073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>276</v>
       </c>
@@ -12092,7 +12102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>276</v>
       </c>
@@ -12121,7 +12131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>276</v>
       </c>
@@ -12150,7 +12160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>276</v>
       </c>
@@ -12179,7 +12189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>276</v>
       </c>
@@ -12217,16 +12227,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12255,7 +12265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -12284,7 +12294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -12313,7 +12323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -12342,7 +12352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -12371,7 +12381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -12400,7 +12410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -12429,7 +12439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -12458,7 +12468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -12487,7 +12497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -12516,7 +12526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -12545,7 +12555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -12574,7 +12584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -12603,7 +12613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -12632,7 +12642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -12672,12 +12682,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12706,7 +12716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>278</v>
       </c>
@@ -12735,7 +12745,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -12764,7 +12774,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>278</v>
       </c>
@@ -12793,7 +12803,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>278</v>
       </c>
@@ -12822,7 +12832,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>278</v>
       </c>
@@ -12851,7 +12861,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -12880,7 +12890,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>278</v>
       </c>
@@ -12909,7 +12919,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>278</v>
       </c>
@@ -12938,7 +12948,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>278</v>
       </c>
@@ -12967,7 +12977,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>278</v>
       </c>
@@ -12996,7 +13006,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>278</v>
       </c>
@@ -13025,7 +13035,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>278</v>
       </c>
@@ -13054,7 +13064,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>278</v>
       </c>
@@ -13083,7 +13093,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>278</v>
       </c>
@@ -13123,12 +13133,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13157,7 +13167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -13186,7 +13196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>294</v>
       </c>
@@ -13215,7 +13225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -13244,7 +13254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -13273,7 +13283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -13302,7 +13312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -13331,7 +13341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -13360,7 +13370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>294</v>
       </c>
@@ -13389,7 +13399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>294</v>
       </c>
@@ -13418,7 +13428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -13447,7 +13457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>294</v>
       </c>
@@ -13476,7 +13486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>294</v>
       </c>
@@ -13505,7 +13515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>294</v>
       </c>
@@ -13534,7 +13544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -13574,12 +13584,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13608,7 +13618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>296</v>
       </c>
@@ -13637,7 +13647,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>296</v>
       </c>
@@ -13666,7 +13676,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>296</v>
       </c>
@@ -13695,7 +13705,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>296</v>
       </c>
@@ -13724,7 +13734,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>296</v>
       </c>
@@ -13753,7 +13763,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -13782,7 +13792,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>296</v>
       </c>
@@ -13811,7 +13821,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -13840,7 +13850,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>296</v>
       </c>
@@ -13869,7 +13879,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>296</v>
       </c>
@@ -13898,7 +13908,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>296</v>
       </c>
@@ -13927,7 +13937,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>296</v>
       </c>
@@ -13956,7 +13966,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>296</v>
       </c>
@@ -13985,7 +13995,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -14025,12 +14035,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14059,7 +14069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>312</v>
       </c>
@@ -14088,7 +14098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>312</v>
       </c>
@@ -14117,7 +14127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>312</v>
       </c>
@@ -14146,7 +14156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>312</v>
       </c>
@@ -14175,7 +14185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -14204,7 +14214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>312</v>
       </c>
@@ -14233,7 +14243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>312</v>
       </c>
@@ -14262,7 +14272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>312</v>
       </c>
@@ -14291,7 +14301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>312</v>
       </c>
@@ -14320,7 +14330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -14349,7 +14359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>312</v>
       </c>
@@ -14378,7 +14388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>312</v>
       </c>
@@ -14407,7 +14417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>312</v>
       </c>
@@ -14436,7 +14446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>312</v>
       </c>
@@ -14476,12 +14486,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14510,7 +14520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -14539,7 +14549,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>314</v>
       </c>
@@ -14568,7 +14578,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>314</v>
       </c>
@@ -14597,7 +14607,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>314</v>
       </c>
@@ -14626,7 +14636,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -14655,7 +14665,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>314</v>
       </c>
@@ -14684,7 +14694,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>314</v>
       </c>
@@ -14713,7 +14723,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>314</v>
       </c>
@@ -14742,7 +14752,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>314</v>
       </c>
@@ -14771,7 +14781,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>314</v>
       </c>
@@ -14800,7 +14810,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>314</v>
       </c>
@@ -14829,7 +14839,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>314</v>
       </c>
@@ -14858,7 +14868,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>314</v>
       </c>
@@ -14887,7 +14897,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>314</v>
       </c>
@@ -14927,12 +14937,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14961,7 +14971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>330</v>
       </c>
@@ -14990,7 +15000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>330</v>
       </c>
@@ -15019,7 +15029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>330</v>
       </c>
@@ -15048,7 +15058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>330</v>
       </c>
@@ -15077,7 +15087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>330</v>
       </c>
@@ -15106,7 +15116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>330</v>
       </c>
@@ -15135,7 +15145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>330</v>
       </c>
@@ -15164,7 +15174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>330</v>
       </c>
@@ -15193,7 +15203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>330</v>
       </c>
@@ -15222,7 +15232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>330</v>
       </c>
@@ -15251,7 +15261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>330</v>
       </c>
@@ -15280,7 +15290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -15309,7 +15319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>330</v>
       </c>
@@ -15338,7 +15348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>330</v>
       </c>
@@ -15378,12 +15388,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15412,7 +15422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>332</v>
       </c>
@@ -15441,7 +15451,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>332</v>
       </c>
@@ -15470,7 +15480,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>332</v>
       </c>
@@ -15499,7 +15509,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>332</v>
       </c>
@@ -15528,7 +15538,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>332</v>
       </c>
@@ -15557,7 +15567,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>332</v>
       </c>
@@ -15586,7 +15596,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>332</v>
       </c>
@@ -15615,7 +15625,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>332</v>
       </c>
@@ -15644,7 +15654,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>332</v>
       </c>
@@ -15673,7 +15683,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>332</v>
       </c>
@@ -15702,7 +15712,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>332</v>
       </c>
@@ -15731,7 +15741,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>332</v>
       </c>
@@ -15760,7 +15770,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>332</v>
       </c>
@@ -15789,7 +15799,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>332</v>
       </c>
@@ -15829,12 +15839,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15863,7 +15873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>348</v>
       </c>
@@ -15892,7 +15902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>348</v>
       </c>
@@ -15921,7 +15931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>348</v>
       </c>
@@ -15950,7 +15960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>348</v>
       </c>
@@ -15979,7 +15989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>348</v>
       </c>
@@ -16008,7 +16018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>348</v>
       </c>
@@ -16037,7 +16047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>348</v>
       </c>
@@ -16066,7 +16076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>348</v>
       </c>
@@ -16095,7 +16105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>348</v>
       </c>
@@ -16124,7 +16134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>348</v>
       </c>
@@ -16153,7 +16163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>348</v>
       </c>
@@ -16182,7 +16192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>348</v>
       </c>
@@ -16211,7 +16221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>348</v>
       </c>
@@ -16240,7 +16250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>348</v>
       </c>
@@ -16280,12 +16290,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16314,7 +16324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>349</v>
       </c>
@@ -16343,7 +16353,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>349</v>
       </c>
@@ -16372,7 +16382,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>349</v>
       </c>
@@ -16401,7 +16411,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -16430,7 +16440,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>349</v>
       </c>
@@ -16459,7 +16469,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>349</v>
       </c>
@@ -16488,7 +16498,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>349</v>
       </c>
@@ -16517,7 +16527,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>349</v>
       </c>
@@ -16546,7 +16556,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>349</v>
       </c>
@@ -16575,7 +16585,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>349</v>
       </c>
@@ -16604,7 +16614,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>349</v>
       </c>
@@ -16633,7 +16643,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>349</v>
       </c>
@@ -16662,7 +16672,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>349</v>
       </c>
@@ -16691,7 +16701,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>349</v>
       </c>
@@ -16731,12 +16741,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16765,7 +16775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>364</v>
       </c>
@@ -16794,7 +16804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>364</v>
       </c>
@@ -16823,7 +16833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>364</v>
       </c>
@@ -16852,7 +16862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>364</v>
       </c>
@@ -16881,7 +16891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>364</v>
       </c>
@@ -16910,7 +16920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>364</v>
       </c>
@@ -16939,7 +16949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>364</v>
       </c>
@@ -16968,7 +16978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>364</v>
       </c>
@@ -16997,7 +17007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>364</v>
       </c>
@@ -17026,7 +17036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>364</v>
       </c>
@@ -17055,7 +17065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>364</v>
       </c>
@@ -17084,7 +17094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>364</v>
       </c>
@@ -17113,7 +17123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>364</v>
       </c>
@@ -17142,7 +17152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>364</v>
       </c>
@@ -17182,12 +17192,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17216,7 +17226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -17245,7 +17255,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -17274,7 +17284,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -17303,7 +17313,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -17332,7 +17342,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -17361,7 +17371,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -17390,7 +17400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -17419,7 +17429,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -17448,7 +17458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -17477,7 +17487,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -17506,7 +17516,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -17535,7 +17545,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -17564,7 +17574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -17593,7 +17603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -17633,12 +17643,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17667,7 +17677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>366</v>
       </c>
@@ -17696,7 +17706,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>366</v>
       </c>
@@ -17725,7 +17735,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>366</v>
       </c>
@@ -17754,7 +17764,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>366</v>
       </c>
@@ -17783,7 +17793,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>366</v>
       </c>
@@ -17812,7 +17822,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>366</v>
       </c>
@@ -17841,7 +17851,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>366</v>
       </c>
@@ -17870,7 +17880,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>366</v>
       </c>
@@ -17899,7 +17909,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>366</v>
       </c>
@@ -17928,7 +17938,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>366</v>
       </c>
@@ -17957,7 +17967,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -17986,7 +17996,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>366</v>
       </c>
@@ -18015,7 +18025,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>366</v>
       </c>
@@ -18044,7 +18054,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>366</v>
       </c>
@@ -18084,12 +18094,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18118,7 +18128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>382</v>
       </c>
@@ -18147,7 +18157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>382</v>
       </c>
@@ -18176,7 +18186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>382</v>
       </c>
@@ -18205,7 +18215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>382</v>
       </c>
@@ -18234,7 +18244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>382</v>
       </c>
@@ -18263,7 +18273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>382</v>
       </c>
@@ -18292,7 +18302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>382</v>
       </c>
@@ -18321,7 +18331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>382</v>
       </c>
@@ -18350,7 +18360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>382</v>
       </c>
@@ -18379,7 +18389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>382</v>
       </c>
@@ -18408,7 +18418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>382</v>
       </c>
@@ -18437,7 +18447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>382</v>
       </c>
@@ -18466,7 +18476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>382</v>
       </c>
@@ -18495,7 +18505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>382</v>
       </c>
@@ -18535,12 +18545,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18569,7 +18579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -18598,7 +18608,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>384</v>
       </c>
@@ -18627,7 +18637,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>384</v>
       </c>
@@ -18656,7 +18666,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>384</v>
       </c>
@@ -18685,7 +18695,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>384</v>
       </c>
@@ -18714,7 +18724,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>384</v>
       </c>
@@ -18743,7 +18753,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>384</v>
       </c>
@@ -18772,7 +18782,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>384</v>
       </c>
@@ -18801,7 +18811,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>384</v>
       </c>
@@ -18830,7 +18840,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>384</v>
       </c>
@@ -18859,7 +18869,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>384</v>
       </c>
@@ -18888,7 +18898,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>384</v>
       </c>
@@ -18917,7 +18927,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>384</v>
       </c>
@@ -18946,7 +18956,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>384</v>
       </c>
@@ -18986,12 +18996,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19020,7 +19030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -19049,7 +19059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>400</v>
       </c>
@@ -19078,7 +19088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -19107,7 +19117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>400</v>
       </c>
@@ -19136,7 +19146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>400</v>
       </c>
@@ -19165,7 +19175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>400</v>
       </c>
@@ -19194,7 +19204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>400</v>
       </c>
@@ -19223,7 +19233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>400</v>
       </c>
@@ -19252,7 +19262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>400</v>
       </c>
@@ -19281,7 +19291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>400</v>
       </c>
@@ -19310,7 +19320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>400</v>
       </c>
@@ -19339,7 +19349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>400</v>
       </c>
@@ -19368,7 +19378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>400</v>
       </c>
@@ -19397,7 +19407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>400</v>
       </c>
@@ -19437,12 +19447,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19471,7 +19481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>402</v>
       </c>
@@ -19500,7 +19510,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>402</v>
       </c>
@@ -19529,7 +19539,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>402</v>
       </c>
@@ -19558,7 +19568,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>402</v>
       </c>
@@ -19587,7 +19597,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -19616,7 +19626,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>402</v>
       </c>
@@ -19645,7 +19655,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>402</v>
       </c>
@@ -19674,7 +19684,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>402</v>
       </c>
@@ -19703,7 +19713,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>402</v>
       </c>
@@ -19732,7 +19742,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>402</v>
       </c>
@@ -19761,7 +19771,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>402</v>
       </c>
@@ -19790,7 +19800,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>402</v>
       </c>
@@ -19819,7 +19829,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>402</v>
       </c>
@@ -19848,7 +19858,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>402</v>
       </c>
@@ -19888,12 +19898,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19922,7 +19932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>418</v>
       </c>
@@ -19951,7 +19961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>418</v>
       </c>
@@ -19980,7 +19990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>418</v>
       </c>
@@ -20009,7 +20019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>418</v>
       </c>
@@ -20038,7 +20048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>418</v>
       </c>
@@ -20067,7 +20077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>418</v>
       </c>
@@ -20096,7 +20106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>418</v>
       </c>
@@ -20125,7 +20135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>418</v>
       </c>
@@ -20154,7 +20164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>418</v>
       </c>
@@ -20183,7 +20193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>418</v>
       </c>
@@ -20212,7 +20222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -20241,7 +20251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>418</v>
       </c>
@@ -20270,7 +20280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>418</v>
       </c>
@@ -20299,7 +20309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>418</v>
       </c>
@@ -20339,12 +20349,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20373,7 +20383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>420</v>
       </c>
@@ -20402,7 +20412,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>420</v>
       </c>
@@ -20431,7 +20441,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>420</v>
       </c>
@@ -20460,7 +20470,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>420</v>
       </c>
@@ -20489,7 +20499,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -20518,7 +20528,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>420</v>
       </c>
@@ -20547,7 +20557,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>420</v>
       </c>
@@ -20576,7 +20586,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>420</v>
       </c>
@@ -20605,7 +20615,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>420</v>
       </c>
@@ -20634,7 +20644,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>420</v>
       </c>
@@ -20663,7 +20673,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -20692,7 +20702,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>420</v>
       </c>
@@ -20721,7 +20731,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>420</v>
       </c>
@@ -20750,7 +20760,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -20790,12 +20800,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20824,7 +20834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -20853,7 +20863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -20882,7 +20892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>436</v>
       </c>
@@ -20911,7 +20921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -20940,7 +20950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>436</v>
       </c>
@@ -20969,7 +20979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>436</v>
       </c>
@@ -20998,7 +21008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>436</v>
       </c>
@@ -21027,7 +21037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>436</v>
       </c>
@@ -21056,7 +21066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>436</v>
       </c>
@@ -21085,7 +21095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>436</v>
       </c>
@@ -21114,7 +21124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>436</v>
       </c>
@@ -21143,7 +21153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>436</v>
       </c>
@@ -21172,7 +21182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>436</v>
       </c>
@@ -21201,7 +21211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>436</v>
       </c>
@@ -21241,12 +21251,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21275,7 +21285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>438</v>
       </c>
@@ -21304,7 +21314,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>438</v>
       </c>
@@ -21333,7 +21343,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>438</v>
       </c>
@@ -21362,7 +21372,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>438</v>
       </c>
@@ -21391,7 +21401,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>438</v>
       </c>
@@ -21420,7 +21430,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>438</v>
       </c>
@@ -21449,7 +21459,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>438</v>
       </c>
@@ -21478,7 +21488,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>438</v>
       </c>
@@ -21507,7 +21517,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>438</v>
       </c>
@@ -21536,7 +21546,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>438</v>
       </c>
@@ -21565,7 +21575,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>438</v>
       </c>
@@ -21594,7 +21604,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>438</v>
       </c>
@@ -21623,7 +21633,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>438</v>
       </c>
@@ -21652,7 +21662,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -21692,12 +21702,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21726,7 +21736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>454</v>
       </c>
@@ -21755,7 +21765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>454</v>
       </c>
@@ -21784,7 +21794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>454</v>
       </c>
@@ -21813,7 +21823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>454</v>
       </c>
@@ -21842,7 +21852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>454</v>
       </c>
@@ -21871,7 +21881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>454</v>
       </c>
@@ -21900,7 +21910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>454</v>
       </c>
@@ -21929,7 +21939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>454</v>
       </c>
@@ -21958,7 +21968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>454</v>
       </c>
@@ -21987,7 +21997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>454</v>
       </c>
@@ -22016,7 +22026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -22045,7 +22055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>454</v>
       </c>
@@ -22074,7 +22084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>454</v>
       </c>
@@ -22103,7 +22113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>454</v>
       </c>
@@ -22143,12 +22153,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22177,7 +22187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -22206,7 +22216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -22235,7 +22245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -22264,7 +22274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -22293,7 +22303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -22322,7 +22332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -22351,7 +22361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -22380,7 +22390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -22409,7 +22419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -22438,7 +22448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -22467,7 +22477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -22496,7 +22506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -22525,7 +22535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -22554,7 +22564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -22594,12 +22604,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22628,7 +22638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>456</v>
       </c>
@@ -22657,7 +22667,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>456</v>
       </c>
@@ -22686,7 +22696,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>456</v>
       </c>
@@ -22715,7 +22725,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>456</v>
       </c>
@@ -22744,7 +22754,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>456</v>
       </c>
@@ -22773,7 +22783,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>456</v>
       </c>
@@ -22802,7 +22812,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>456</v>
       </c>
@@ -22831,7 +22841,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>456</v>
       </c>
@@ -22860,7 +22870,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>456</v>
       </c>
@@ -22889,7 +22899,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>456</v>
       </c>
@@ -22918,7 +22928,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -22947,7 +22957,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>456</v>
       </c>
@@ -22976,7 +22986,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>456</v>
       </c>
@@ -23005,7 +23015,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>456</v>
       </c>
@@ -23045,12 +23055,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23079,7 +23089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -23108,7 +23118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>472</v>
       </c>
@@ -23137,7 +23147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>472</v>
       </c>
@@ -23166,7 +23176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>472</v>
       </c>
@@ -23195,7 +23205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>472</v>
       </c>
@@ -23224,7 +23234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>472</v>
       </c>
@@ -23253,7 +23263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>472</v>
       </c>
@@ -23282,7 +23292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>472</v>
       </c>
@@ -23311,7 +23321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>472</v>
       </c>
@@ -23340,7 +23350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>472</v>
       </c>
@@ -23369,7 +23379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>472</v>
       </c>
@@ -23398,7 +23408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>472</v>
       </c>
@@ -23427,7 +23437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>472</v>
       </c>
@@ -23456,7 +23466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -23496,12 +23506,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23530,7 +23540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>474</v>
       </c>
@@ -23559,7 +23569,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>474</v>
       </c>
@@ -23588,7 +23598,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>474</v>
       </c>
@@ -23617,7 +23627,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>474</v>
       </c>
@@ -23646,7 +23656,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>474</v>
       </c>
@@ -23675,7 +23685,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>474</v>
       </c>
@@ -23704,7 +23714,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>474</v>
       </c>
@@ -23733,7 +23743,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>474</v>
       </c>
@@ -23762,7 +23772,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>474</v>
       </c>
@@ -23791,7 +23801,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>474</v>
       </c>
@@ -23820,7 +23830,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>474</v>
       </c>
@@ -23849,7 +23859,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>474</v>
       </c>
@@ -23878,7 +23888,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>474</v>
       </c>
@@ -23907,7 +23917,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>474</v>
       </c>
@@ -23947,12 +23957,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23981,7 +23991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>490</v>
       </c>
@@ -24010,7 +24020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>490</v>
       </c>
@@ -24039,7 +24049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>490</v>
       </c>
@@ -24068,7 +24078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>490</v>
       </c>
@@ -24097,7 +24107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>490</v>
       </c>
@@ -24126,7 +24136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>490</v>
       </c>
@@ -24155,7 +24165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>490</v>
       </c>
@@ -24184,7 +24194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>490</v>
       </c>
@@ -24213,7 +24223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>490</v>
       </c>
@@ -24242,7 +24252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>490</v>
       </c>
@@ -24271,7 +24281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>490</v>
       </c>
@@ -24300,7 +24310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>490</v>
       </c>
@@ -24329,7 +24339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>490</v>
       </c>
@@ -24358,7 +24368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>490</v>
       </c>
@@ -24398,12 +24408,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24432,7 +24442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -24461,7 +24471,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>492</v>
       </c>
@@ -24490,7 +24500,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>492</v>
       </c>
@@ -24519,7 +24529,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>492</v>
       </c>
@@ -24548,7 +24558,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>492</v>
       </c>
@@ -24577,7 +24587,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>492</v>
       </c>
@@ -24606,7 +24616,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>492</v>
       </c>
@@ -24635,7 +24645,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>492</v>
       </c>
@@ -24664,7 +24674,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>492</v>
       </c>
@@ -24693,7 +24703,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>492</v>
       </c>
@@ -24722,7 +24732,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>492</v>
       </c>
@@ -24751,7 +24761,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>492</v>
       </c>
@@ -24780,7 +24790,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>492</v>
       </c>
@@ -24809,7 +24819,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>492</v>
       </c>
@@ -24849,12 +24859,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24883,7 +24893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>508</v>
       </c>
@@ -24912,7 +24922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>508</v>
       </c>
@@ -24941,7 +24951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>508</v>
       </c>
@@ -24970,7 +24980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>508</v>
       </c>
@@ -24999,7 +25009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>508</v>
       </c>
@@ -25028,7 +25038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -25057,7 +25067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>508</v>
       </c>
@@ -25086,7 +25096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>508</v>
       </c>
@@ -25115,7 +25125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>508</v>
       </c>
@@ -25144,7 +25154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>508</v>
       </c>
@@ -25173,7 +25183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>508</v>
       </c>
@@ -25202,7 +25212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>508</v>
       </c>
@@ -25231,7 +25241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>508</v>
       </c>
@@ -25260,7 +25270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>508</v>
       </c>
@@ -25300,12 +25310,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25334,7 +25344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -25363,7 +25373,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>510</v>
       </c>
@@ -25392,7 +25402,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>510</v>
       </c>
@@ -25421,7 +25431,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>510</v>
       </c>
@@ -25450,7 +25460,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -25479,7 +25489,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>510</v>
       </c>
@@ -25508,7 +25518,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -25537,7 +25547,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>510</v>
       </c>
@@ -25566,7 +25576,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>510</v>
       </c>
@@ -25595,7 +25605,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>510</v>
       </c>
@@ -25624,7 +25634,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>510</v>
       </c>
@@ -25653,7 +25663,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>510</v>
       </c>
@@ -25682,7 +25692,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>510</v>
       </c>
@@ -25711,7 +25721,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>510</v>
       </c>
@@ -25751,12 +25761,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25785,7 +25795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>526</v>
       </c>
@@ -25814,7 +25824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>526</v>
       </c>
@@ -25843,7 +25853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>526</v>
       </c>
@@ -25872,7 +25882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>526</v>
       </c>
@@ -25901,7 +25911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>526</v>
       </c>
@@ -25930,7 +25940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>526</v>
       </c>
@@ -25959,7 +25969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>526</v>
       </c>
@@ -25988,7 +25998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>526</v>
       </c>
@@ -26017,7 +26027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>526</v>
       </c>
@@ -26046,7 +26056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>526</v>
       </c>
@@ -26075,7 +26085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>526</v>
       </c>
@@ -26104,7 +26114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>526</v>
       </c>
@@ -26133,7 +26143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>526</v>
       </c>
@@ -26162,7 +26172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>526</v>
       </c>
@@ -26202,12 +26212,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26236,7 +26246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>528</v>
       </c>
@@ -26265,7 +26275,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>528</v>
       </c>
@@ -26294,7 +26304,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>528</v>
       </c>
@@ -26323,7 +26333,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>528</v>
       </c>
@@ -26352,7 +26362,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>528</v>
       </c>
@@ -26381,7 +26391,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>528</v>
       </c>
@@ -26410,7 +26420,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>528</v>
       </c>
@@ -26439,7 +26449,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>528</v>
       </c>
@@ -26468,7 +26478,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>528</v>
       </c>
@@ -26497,7 +26507,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>528</v>
       </c>
@@ -26526,7 +26536,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>528</v>
       </c>
@@ -26555,7 +26565,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>528</v>
       </c>
@@ -26584,7 +26594,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>528</v>
       </c>
@@ -26613,7 +26623,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>528</v>
       </c>
@@ -26653,12 +26663,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26687,7 +26697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -26716,7 +26726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>544</v>
       </c>
@@ -26745,7 +26755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>544</v>
       </c>
@@ -26774,7 +26784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>544</v>
       </c>
@@ -26803,7 +26813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>544</v>
       </c>
@@ -26832,7 +26842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>544</v>
       </c>
@@ -26861,7 +26871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>544</v>
       </c>
@@ -26890,7 +26900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>544</v>
       </c>
@@ -26919,7 +26929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>544</v>
       </c>
@@ -26948,7 +26958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>544</v>
       </c>
@@ -26977,7 +26987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>544</v>
       </c>
@@ -27006,7 +27016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>544</v>
       </c>
@@ -27035,7 +27045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>544</v>
       </c>
@@ -27064,7 +27074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>544</v>
       </c>
@@ -27104,12 +27114,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27138,7 +27148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -27167,7 +27177,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -27196,7 +27206,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -27225,7 +27235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -27254,7 +27264,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -27283,7 +27293,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -27312,7 +27322,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -27341,7 +27351,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -27370,7 +27380,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -27399,7 +27409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -27428,7 +27438,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -27457,7 +27467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -27486,7 +27496,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -27515,7 +27525,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -27555,12 +27565,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27589,7 +27599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>546</v>
       </c>
@@ -27618,7 +27628,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>546</v>
       </c>
@@ -27647,7 +27657,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>546</v>
       </c>
@@ -27676,7 +27686,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>546</v>
       </c>
@@ -27705,7 +27715,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>546</v>
       </c>
@@ -27734,7 +27744,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>546</v>
       </c>
@@ -27763,7 +27773,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>546</v>
       </c>
@@ -27792,7 +27802,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>546</v>
       </c>
@@ -27821,7 +27831,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>546</v>
       </c>
@@ -27850,7 +27860,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>546</v>
       </c>
@@ -27879,7 +27889,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>546</v>
       </c>
@@ -27908,7 +27918,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>546</v>
       </c>
@@ -27937,7 +27947,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>546</v>
       </c>
@@ -27966,7 +27976,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>546</v>
       </c>
@@ -28006,12 +28016,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28040,7 +28050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>562</v>
       </c>
@@ -28069,7 +28079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>562</v>
       </c>
@@ -28098,7 +28108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>562</v>
       </c>
@@ -28127,7 +28137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>562</v>
       </c>
@@ -28156,7 +28166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>562</v>
       </c>
@@ -28185,7 +28195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>562</v>
       </c>
@@ -28214,7 +28224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>562</v>
       </c>
@@ -28243,7 +28253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>562</v>
       </c>
@@ -28272,7 +28282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>562</v>
       </c>
@@ -28301,7 +28311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>562</v>
       </c>
@@ -28330,7 +28340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>562</v>
       </c>
@@ -28359,7 +28369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>562</v>
       </c>
@@ -28388,7 +28398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>562</v>
       </c>
@@ -28417,7 +28427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>562</v>
       </c>
@@ -28457,12 +28467,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28491,7 +28501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>564</v>
       </c>
@@ -28520,7 +28530,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>564</v>
       </c>
@@ -28549,7 +28559,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>564</v>
       </c>
@@ -28578,7 +28588,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>564</v>
       </c>
@@ -28607,7 +28617,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>564</v>
       </c>
@@ -28636,7 +28646,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>564</v>
       </c>
@@ -28665,7 +28675,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>564</v>
       </c>
@@ -28694,7 +28704,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>564</v>
       </c>
@@ -28723,7 +28733,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>564</v>
       </c>
@@ -28752,7 +28762,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>564</v>
       </c>
@@ -28781,7 +28791,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>564</v>
       </c>
@@ -28810,7 +28820,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>564</v>
       </c>
@@ -28839,7 +28849,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>564</v>
       </c>
@@ -28868,7 +28878,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>564</v>
       </c>
@@ -28908,12 +28918,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28942,7 +28952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>580</v>
       </c>
@@ -28971,7 +28981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>580</v>
       </c>
@@ -29000,7 +29010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>580</v>
       </c>
@@ -29029,7 +29039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>580</v>
       </c>
@@ -29058,7 +29068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>580</v>
       </c>
@@ -29087,7 +29097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>580</v>
       </c>
@@ -29116,7 +29126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>580</v>
       </c>
@@ -29145,7 +29155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>580</v>
       </c>
@@ -29174,7 +29184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>580</v>
       </c>
@@ -29203,7 +29213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>580</v>
       </c>
@@ -29232,7 +29242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>580</v>
       </c>
@@ -29261,7 +29271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>580</v>
       </c>
@@ -29290,7 +29300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>580</v>
       </c>
@@ -29319,7 +29329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>580</v>
       </c>
@@ -29359,12 +29369,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29393,7 +29403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>582</v>
       </c>
@@ -29422,7 +29432,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>582</v>
       </c>
@@ -29451,7 +29461,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>582</v>
       </c>
@@ -29480,7 +29490,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>582</v>
       </c>
@@ -29509,7 +29519,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>582</v>
       </c>
@@ -29538,7 +29548,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>582</v>
       </c>
@@ -29567,7 +29577,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>582</v>
       </c>
@@ -29596,7 +29606,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>582</v>
       </c>
@@ -29625,7 +29635,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>582</v>
       </c>
@@ -29654,7 +29664,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>582</v>
       </c>
@@ -29683,7 +29693,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>582</v>
       </c>
@@ -29712,7 +29722,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>582</v>
       </c>
@@ -29741,7 +29751,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>582</v>
       </c>
@@ -29770,7 +29780,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>582</v>
       </c>
@@ -29812,12 +29822,12 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29846,7 +29856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>598</v>
       </c>
@@ -29875,7 +29885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>598</v>
       </c>
@@ -29904,7 +29914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>598</v>
       </c>
@@ -29933,7 +29943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>598</v>
       </c>
@@ -29962,7 +29972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>598</v>
       </c>
@@ -29991,7 +30001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>598</v>
       </c>
@@ -30020,7 +30030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>598</v>
       </c>
@@ -30049,7 +30059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>598</v>
       </c>
@@ -30078,7 +30088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>598</v>
       </c>
@@ -30107,7 +30117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>598</v>
       </c>
@@ -30136,7 +30146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>598</v>
       </c>
@@ -30165,7 +30175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>598</v>
       </c>
@@ -30194,7 +30204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>598</v>
       </c>
@@ -30223,7 +30233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>598</v>
       </c>
@@ -30263,12 +30273,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30297,7 +30307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>600</v>
       </c>
@@ -30326,7 +30336,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>600</v>
       </c>
@@ -30355,7 +30365,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>600</v>
       </c>
@@ -30384,7 +30394,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>600</v>
       </c>
@@ -30413,7 +30423,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>600</v>
       </c>
@@ -30442,7 +30452,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>600</v>
       </c>
@@ -30471,7 +30481,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>600</v>
       </c>
@@ -30500,7 +30510,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>600</v>
       </c>
@@ -30529,7 +30539,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>600</v>
       </c>
@@ -30558,7 +30568,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>600</v>
       </c>
@@ -30587,7 +30597,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>600</v>
       </c>
@@ -30616,7 +30626,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>600</v>
       </c>
@@ -30645,7 +30655,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>600</v>
       </c>
@@ -30674,7 +30684,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>600</v>
       </c>
@@ -30712,14 +30722,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30748,7 +30760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -30777,7 +30789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -30806,7 +30818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -30835,7 +30847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -30864,7 +30876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -30893,7 +30905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -30922,7 +30934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -30951,7 +30963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -30980,7 +30992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -31009,7 +31021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -31038,7 +31050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -31067,7 +31079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -31096,7 +31108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -31125,7 +31137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -31165,12 +31177,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31199,7 +31211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -31228,7 +31240,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -31257,7 +31269,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -31286,7 +31298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -31315,7 +31327,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -31344,7 +31356,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -31373,7 +31385,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -31402,7 +31414,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -31431,7 +31443,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -31460,7 +31472,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -31489,7 +31501,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -31518,7 +31530,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -31547,7 +31559,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -31576,7 +31588,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -31614,14 +31626,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31650,7 +31664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -31679,7 +31693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -31708,7 +31722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -31737,7 +31751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -31766,7 +31780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -31795,7 +31809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -31824,7 +31838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -31853,7 +31867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -31882,7 +31896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -31911,7 +31925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -31940,7 +31954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -31969,7 +31983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -31998,7 +32012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -32027,7 +32041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>112</v>
       </c>
